--- a/CRM_Project_C/Source/CRM.WebApi/Uploads/MyExcelFile.xlsx
+++ b/CRM_Project_C/Source/CRM.WebApi/Uploads/MyExcelFile.xlsx
@@ -153,34 +153,34 @@
     <t>Country20</t>
   </si>
   <si>
-    <t>samplemail11yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail12yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail13yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail14yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail15yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail16yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail17yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail18yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail19yandex.ru</t>
-  </si>
-  <si>
-    <t>samplemail20yandex.ru</t>
+    <t>samplemail32yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail33yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail34yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail35yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail36yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail37yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail38yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail39yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail40yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail41yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
